--- a/datasheets/Kolodny_et_al_1983.xlsx
+++ b/datasheets/Kolodny_et_al_1983.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="104">
   <si>
     <t xml:space="preserve">Collection number</t>
   </si>
@@ -142,6 +142,9 @@
     <t xml:space="preserve">DOI</t>
   </si>
   <si>
+    <t xml:space="preserve">refShort</t>
+  </si>
+  <si>
     <t xml:space="preserve">P-1</t>
   </si>
   <si>
@@ -167,6 +170,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.1016/0012-821X(83)90100-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolodny et al. (1983)</t>
   </si>
   <si>
     <t xml:space="preserve">P-2</t>
@@ -487,10 +493,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN35"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AI1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AN31" activeCellId="0" sqref="AN27:AN31"/>
+      <selection pane="topLeft" activeCell="AO2" activeCellId="0" sqref="AO2:AO22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -522,7 +528,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="12.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="26.6"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="41" style="1" width="11.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="17.8"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="42" style="1" width="11.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -646,36 +653,39 @@
       <c r="AN1" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="AO1" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="6" t="n">
         <v>19.4</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" s="5" t="n">
         <v>-2.1</v>
@@ -701,38 +711,41 @@
         <v>0</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="6" t="n">
         <v>19.6</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" s="5" t="n">
         <v>-2.1</v>
@@ -758,38 +771,41 @@
         <v>0</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="6" t="n">
         <v>18.5</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>-2.1</v>
@@ -815,40 +831,43 @@
         <v>0</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J5" s="6" t="n">
         <v>22.3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L5" s="5" t="n">
         <v>1.5</v>
@@ -874,42 +893,45 @@
         <v>0</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="J6" s="6" t="n">
         <v>23.3</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L6" s="5" t="n">
         <v>1.9</v>
@@ -935,42 +957,45 @@
         <v>0</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="F7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="J7" s="6" t="n">
         <v>22.7</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L7" s="5" t="n">
         <v>1.9</v>
@@ -996,40 +1021,43 @@
         <v>0</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J8" s="6" t="n">
         <v>22.6</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L8" s="5" t="n">
         <v>1.9</v>
@@ -1055,42 +1083,45 @@
         <v>0</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J9" s="6" t="n">
         <v>22.2</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L9" s="5" t="n">
         <v>1.9</v>
@@ -1116,40 +1147,43 @@
         <v>0</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J10" s="6" t="n">
         <v>23.2</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L10" s="5" t="n">
         <v>1.9</v>
@@ -1175,40 +1209,43 @@
         <v>0</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J11" s="6" t="n">
         <v>22.3</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L11" s="5" t="n">
         <v>1.9</v>
@@ -1234,40 +1271,43 @@
         <v>0</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J12" s="6" t="n">
         <v>25.2</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L12" s="5" t="n">
         <f aca="false">AVERAGE(1,7.5)</f>
@@ -1298,40 +1338,43 @@
         <v>0</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J13" s="6" t="n">
         <v>23.6</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L13" s="5" t="n">
         <f aca="false">AVERAGE(1,7.5)</f>
@@ -1362,40 +1405,43 @@
         <v>0</v>
       </c>
       <c r="AN13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J14" s="6" t="n">
         <v>24</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L14" s="5" t="n">
         <f aca="false">AVERAGE(1,7.5)</f>
@@ -1426,40 +1472,43 @@
         <v>0</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J15" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L15" s="5" t="n">
         <f aca="false">AVERAGE(1,7.5)</f>
@@ -1490,38 +1539,41 @@
         <v>0</v>
       </c>
       <c r="AN15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="6" t="n">
         <v>11.1</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L16" s="5" t="n">
         <v>-13.3</v>
@@ -1543,38 +1595,41 @@
         <v>120</v>
       </c>
       <c r="AN16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="6" t="n">
         <v>6</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L17" s="5" t="n">
         <v>-15.9</v>
@@ -1600,38 +1655,41 @@
         <v>0</v>
       </c>
       <c r="AN17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="6" t="n">
         <v>7.3</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L18" s="5" t="n">
         <v>-15.9</v>
@@ -1657,38 +1715,41 @@
         <v>0</v>
       </c>
       <c r="AN18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AO18" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="6" t="n">
         <v>9</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L19" s="5" t="n">
         <v>-15.9</v>
@@ -1714,38 +1775,41 @@
         <v>0</v>
       </c>
       <c r="AN19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="6" t="n">
         <v>9.2</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L20" s="5" t="n">
         <v>-15.9</v>
@@ -1771,40 +1835,43 @@
         <v>0</v>
       </c>
       <c r="AN20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J21" s="6" t="n">
         <v>14.9</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L21" s="5" t="n">
         <v>-8</v>
@@ -1828,40 +1895,43 @@
         <v>176</v>
       </c>
       <c r="AN21" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AO21" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J22" s="6" t="n">
         <v>15.4</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L22" s="5" t="n">
         <v>-7.5</v>
@@ -1887,7 +1957,10 @@
         <v>176</v>
       </c>
       <c r="AN22" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AO22" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/datasheets/Kolodny_et_al_1983.xlsx
+++ b/datasheets/Kolodny_et_al_1983.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="116">
   <si>
     <t xml:space="preserve">Collection number</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">Taxon</t>
   </si>
   <si>
+    <t xml:space="preserve">Family</t>
+  </si>
+  <si>
     <t xml:space="preserve">Animal</t>
   </si>
   <si>
@@ -148,7 +151,10 @@
     <t xml:space="preserve">P-1</t>
   </si>
   <si>
-    <t xml:space="preserve">Nirogrex terraesanctae</t>
+    <t xml:space="preserve">Mirogrex terraesanctae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprinidae</t>
   </si>
   <si>
     <t xml:space="preserve">fish</t>
@@ -181,10 +187,16 @@
     <t xml:space="preserve">Mugil cephalus</t>
   </si>
   <si>
+    <t xml:space="preserve">Mugilidae</t>
+  </si>
+  <si>
     <t xml:space="preserve">P-4</t>
   </si>
   <si>
-    <t xml:space="preserve">Sarothrodon galilaeos</t>
+    <t xml:space="preserve">Sarotherodon galilaeus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cichlidae</t>
   </si>
   <si>
     <t xml:space="preserve">P-6</t>
@@ -193,6 +205,9 @@
     <t xml:space="preserve">Epinephelus sp.</t>
   </si>
   <si>
+    <t xml:space="preserve">Serranidae</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mediterranean, Acre</t>
   </si>
   <si>
@@ -205,7 +220,10 @@
     <t xml:space="preserve">FT-4</t>
   </si>
   <si>
-    <t xml:space="preserve">Scaruss sp.</t>
+    <t xml:space="preserve">Scarus sp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scaridae</t>
   </si>
   <si>
     <t xml:space="preserve">teeth</t>
@@ -226,7 +244,10 @@
     <t xml:space="preserve">FT-7</t>
   </si>
   <si>
-    <t xml:space="preserve">Siganus luriadus</t>
+    <t xml:space="preserve">Siganus luridus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siganidae</t>
   </si>
   <si>
     <t xml:space="preserve">FT-2</t>
@@ -247,7 +268,10 @@
     <t xml:space="preserve">FT-6</t>
   </si>
   <si>
-    <t xml:space="preserve">tetradontidae indet.</t>
+    <t xml:space="preserve">Tetraodontidae indet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tetraodontidae</t>
   </si>
   <si>
     <t xml:space="preserve">FT-11a</t>
@@ -256,6 +280,9 @@
     <t xml:space="preserve">Sparus aurata</t>
   </si>
   <si>
+    <t xml:space="preserve">Sparidae</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bardawil lagoon</t>
   </si>
   <si>
@@ -277,6 +304,9 @@
     <t xml:space="preserve">Salvelinus namaycush</t>
   </si>
   <si>
+    <t xml:space="preserve">Salmonidae</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lake Inari</t>
   </si>
   <si>
@@ -289,6 +319,9 @@
     <t xml:space="preserve">Perca sp.</t>
   </si>
   <si>
+    <t xml:space="preserve">Percidae</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lake Baikal</t>
   </si>
   <si>
@@ -298,7 +331,7 @@
     <t xml:space="preserve">FTB-2</t>
   </si>
   <si>
-    <t xml:space="preserve">Coregorius sp.</t>
+    <t xml:space="preserve">Coregonus sp.</t>
   </si>
   <si>
     <t xml:space="preserve">FTB-3</t>
@@ -307,10 +340,13 @@
     <t xml:space="preserve">Cottus sp.</t>
   </si>
   <si>
+    <t xml:space="preserve">Cottidae</t>
+  </si>
+  <si>
     <t xml:space="preserve">FTB-4</t>
   </si>
   <si>
-    <t xml:space="preserve">Battrochocottus sp.</t>
+    <t xml:space="preserve">Batrachocottus sp.</t>
   </si>
   <si>
     <t xml:space="preserve">FTX</t>
@@ -493,43 +529,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AO35"/>
+  <dimension ref="A1:AP35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AI1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO2" activeCellId="0" sqref="AO2:AO22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="18.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="19.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="11" style="1" width="11.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="14.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="1" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="14.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="26.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="17.8"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="42" style="1" width="11.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="24.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="18.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="19.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="21" min="12" style="1" width="11.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="14.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="26" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="26.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="17.8"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="43" style="1" width="11.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -566,7 +602,7 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -656,1311 +692,1377 @@
       <c r="AO1" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AP1" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="D2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6" t="n">
         <v>19.4</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="5" t="n">
+      <c r="L2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="5" t="n">
         <v>-2.1</v>
       </c>
-      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="5" t="n">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5" t="n">
         <v>21.5</v>
       </c>
-      <c r="P2" s="5" t="n">
+      <c r="Q2" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="Q2" s="5" t="n">
+      <c r="R2" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="S2" s="1" t="n">
         <v>32.825</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="T2" s="1" t="n">
         <v>35.588</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="U2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AO2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="5" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>32.825</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>35.588</v>
+      </c>
+      <c r="U3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="AP3" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="5" t="n">
-        <v>-2.1</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="P3" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="R3" s="1" t="n">
-        <v>32.825</v>
-      </c>
-      <c r="S3" s="1" t="n">
-        <v>35.588</v>
-      </c>
-      <c r="T3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6" t="n">
         <v>18.5</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="5" t="n">
+      <c r="L4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="5" t="n">
         <v>-2.1</v>
       </c>
-      <c r="M4" s="5"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="5" t="n">
+      <c r="O4" s="5"/>
+      <c r="P4" s="5" t="n">
         <v>21.5</v>
       </c>
-      <c r="P4" s="5" t="n">
+      <c r="Q4" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="Q4" s="5" t="n">
+      <c r="R4" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="R4" s="1" t="n">
+      <c r="S4" s="1" t="n">
         <v>32.825</v>
       </c>
-      <c r="S4" s="1" t="n">
+      <c r="T4" s="1" t="n">
         <v>35.588</v>
       </c>
-      <c r="T4" s="1" t="n">
+      <c r="U4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN4" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AO4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>57</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="6" t="n">
         <v>22.3</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="5" t="n">
+      <c r="L5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="M5" s="5"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="5" t="n">
+      <c r="O5" s="5"/>
+      <c r="P5" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="P5" s="5" t="n">
+      <c r="Q5" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="Q5" s="5" t="n">
+      <c r="R5" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="R5" s="1" t="n">
+      <c r="S5" s="1" t="n">
         <v>32.935</v>
       </c>
-      <c r="S5" s="1" t="n">
+      <c r="T5" s="1" t="n">
         <v>35.083</v>
       </c>
-      <c r="T5" s="1" t="n">
+      <c r="U5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN5" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AO5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="6" t="n">
+      <c r="K6" s="6" t="n">
         <v>23.3</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="5" t="n">
+      <c r="L6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="5" t="n">
         <v>1.9</v>
       </c>
-      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="5" t="n">
+      <c r="O6" s="5"/>
+      <c r="P6" s="5" t="n">
         <v>23.5</v>
       </c>
-      <c r="P6" s="5" t="n">
+      <c r="Q6" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="Q6" s="5" t="n">
+      <c r="R6" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="R6" s="5" t="n">
+      <c r="S6" s="5" t="n">
         <v>28.722</v>
       </c>
-      <c r="S6" s="1" t="n">
+      <c r="T6" s="1" t="n">
         <v>34.729</v>
       </c>
-      <c r="T6" s="1" t="n">
+      <c r="U6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN6" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AO6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="6" t="n">
+      <c r="K7" s="6" t="n">
         <v>22.7</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="5" t="n">
+      <c r="L7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="5" t="n">
         <v>1.9</v>
       </c>
-      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="5" t="n">
+      <c r="O7" s="5"/>
+      <c r="P7" s="5" t="n">
         <v>23.5</v>
       </c>
-      <c r="P7" s="5" t="n">
+      <c r="Q7" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="Q7" s="5" t="n">
+      <c r="R7" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="R7" s="5" t="n">
+      <c r="S7" s="5" t="n">
         <v>28.722</v>
       </c>
-      <c r="S7" s="1" t="n">
+      <c r="T7" s="1" t="n">
         <v>34.729</v>
       </c>
-      <c r="T7" s="1" t="n">
+      <c r="U7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN7" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AO7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="6" t="n">
+      <c r="K8" s="6" t="n">
         <v>22.6</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="5" t="n">
+      <c r="L8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="5" t="n">
         <v>1.9</v>
       </c>
-      <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="5" t="n">
+      <c r="O8" s="5"/>
+      <c r="P8" s="5" t="n">
         <v>23.5</v>
       </c>
-      <c r="P8" s="5" t="n">
+      <c r="Q8" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="Q8" s="5" t="n">
+      <c r="R8" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="R8" s="5" t="n">
+      <c r="S8" s="5" t="n">
         <v>28.722</v>
       </c>
-      <c r="S8" s="1" t="n">
+      <c r="T8" s="1" t="n">
         <v>34.729</v>
       </c>
-      <c r="T8" s="1" t="n">
+      <c r="U8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN8" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AO8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="H9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="6" t="n">
+      <c r="K9" s="6" t="n">
         <v>22.2</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="5" t="n">
+      <c r="L9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="5" t="n">
         <v>1.9</v>
       </c>
-      <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="5" t="n">
+      <c r="O9" s="5"/>
+      <c r="P9" s="5" t="n">
         <v>23.5</v>
       </c>
-      <c r="P9" s="5" t="n">
+      <c r="Q9" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="Q9" s="5" t="n">
+      <c r="R9" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="R9" s="5" t="n">
+      <c r="S9" s="5" t="n">
         <v>28.722</v>
       </c>
-      <c r="S9" s="1" t="n">
+      <c r="T9" s="1" t="n">
         <v>34.729</v>
       </c>
-      <c r="T9" s="1" t="n">
+      <c r="U9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN9" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AO9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="6" t="n">
+      <c r="K10" s="6" t="n">
         <v>23.2</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="5" t="n">
+      <c r="L10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="5" t="n">
         <v>1.9</v>
       </c>
-      <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="5" t="n">
+      <c r="O10" s="5"/>
+      <c r="P10" s="5" t="n">
         <v>23.5</v>
       </c>
-      <c r="P10" s="5" t="n">
+      <c r="Q10" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="Q10" s="5" t="n">
+      <c r="R10" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="R10" s="5" t="n">
+      <c r="S10" s="5" t="n">
         <v>28.722</v>
       </c>
-      <c r="S10" s="1" t="n">
+      <c r="T10" s="1" t="n">
         <v>34.729</v>
       </c>
-      <c r="T10" s="1" t="n">
+      <c r="U10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN10" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AO10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="6" t="n">
+      <c r="K11" s="6" t="n">
         <v>22.3</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L11" s="5" t="n">
+      <c r="L11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="5" t="n">
         <v>1.9</v>
       </c>
-      <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="5" t="n">
+      <c r="O11" s="5"/>
+      <c r="P11" s="5" t="n">
         <v>23.5</v>
       </c>
-      <c r="P11" s="5" t="n">
+      <c r="Q11" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="Q11" s="5" t="n">
+      <c r="R11" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="R11" s="5" t="n">
+      <c r="S11" s="5" t="n">
         <v>28.722</v>
       </c>
-      <c r="S11" s="1" t="n">
+      <c r="T11" s="1" t="n">
         <v>34.729</v>
       </c>
-      <c r="T11" s="1" t="n">
+      <c r="U11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN11" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AO11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
-        <v>78</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="6" t="n">
         <v>25.2</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" s="5" t="n">
+      <c r="L12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="5" t="n">
         <f aca="false">AVERAGE(1,7.5)</f>
         <v>4.25</v>
       </c>
-      <c r="M12" s="5" t="n">
+      <c r="N12" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N12" s="5" t="n">
+      <c r="O12" s="5" t="n">
         <v>7.5</v>
       </c>
-      <c r="O12" s="5" t="n">
+      <c r="P12" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="P12" s="5" t="n">
+      <c r="Q12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="Q12" s="5" t="n">
+      <c r="R12" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="R12" s="5" t="n">
+      <c r="S12" s="5" t="n">
         <v>31.187</v>
       </c>
-      <c r="S12" s="1" t="n">
+      <c r="T12" s="1" t="n">
         <v>33.213</v>
       </c>
-      <c r="T12" s="1" t="n">
+      <c r="U12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN12" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AO12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
-        <v>78</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="6" t="n">
         <v>23.6</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="5" t="n">
+      <c r="L13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="5" t="n">
         <f aca="false">AVERAGE(1,7.5)</f>
         <v>4.25</v>
       </c>
-      <c r="M13" s="5" t="n">
+      <c r="N13" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N13" s="5" t="n">
+      <c r="O13" s="5" t="n">
         <v>7.5</v>
       </c>
-      <c r="O13" s="5" t="n">
+      <c r="P13" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="P13" s="5" t="n">
+      <c r="Q13" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="Q13" s="5" t="n">
+      <c r="R13" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="R13" s="5" t="n">
+      <c r="S13" s="5" t="n">
         <v>31.187</v>
       </c>
-      <c r="S13" s="1" t="n">
+      <c r="T13" s="1" t="n">
         <v>33.213</v>
       </c>
-      <c r="T13" s="1" t="n">
+      <c r="U13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN13" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AO13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
-        <v>78</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L14" s="5" t="n">
+      <c r="L14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="5" t="n">
         <f aca="false">AVERAGE(1,7.5)</f>
         <v>4.25</v>
       </c>
-      <c r="M14" s="5" t="n">
+      <c r="N14" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N14" s="5" t="n">
+      <c r="O14" s="5" t="n">
         <v>7.5</v>
       </c>
-      <c r="O14" s="5" t="n">
+      <c r="P14" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="P14" s="5" t="n">
+      <c r="Q14" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="Q14" s="5" t="n">
+      <c r="R14" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="R14" s="5" t="n">
+      <c r="S14" s="5" t="n">
         <v>31.187</v>
       </c>
-      <c r="S14" s="1" t="n">
+      <c r="T14" s="1" t="n">
         <v>33.213</v>
       </c>
-      <c r="T14" s="1" t="n">
+      <c r="U14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN14" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AO14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
-        <v>78</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15" s="5" t="n">
+      <c r="L15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="5" t="n">
         <f aca="false">AVERAGE(1,7.5)</f>
         <v>4.25</v>
       </c>
-      <c r="M15" s="5" t="n">
+      <c r="N15" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N15" s="5" t="n">
+      <c r="O15" s="5" t="n">
         <v>7.5</v>
       </c>
-      <c r="O15" s="5" t="n">
+      <c r="P15" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="P15" s="5" t="n">
+      <c r="Q15" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="Q15" s="5" t="n">
+      <c r="R15" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="R15" s="5" t="n">
+      <c r="S15" s="5" t="n">
         <v>31.187</v>
       </c>
-      <c r="S15" s="1" t="n">
+      <c r="T15" s="1" t="n">
         <v>33.213</v>
       </c>
-      <c r="T15" s="1" t="n">
+      <c r="U15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN15" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AO15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
-        <v>85</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6" t="n">
         <v>11.1</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16" s="5" t="n">
+      <c r="L16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="5" t="n">
         <v>-13.3</v>
       </c>
-      <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="5" t="n">
+      <c r="O16" s="5"/>
+      <c r="P16" s="5" t="n">
         <v>4.2</v>
       </c>
-      <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-      <c r="R16" s="5" t="n">
+      <c r="R16" s="5"/>
+      <c r="S16" s="5" t="n">
         <v>69.06</v>
       </c>
-      <c r="S16" s="1" t="n">
+      <c r="T16" s="1" t="n">
         <v>27.875</v>
       </c>
-      <c r="T16" s="1" t="n">
+      <c r="U16" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="AN16" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AO16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
-        <v>89</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="K17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" s="5" t="n">
+      <c r="L17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="5" t="n">
         <v>-15.9</v>
       </c>
-      <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="5" t="n">
+      <c r="O17" s="5"/>
+      <c r="P17" s="5" t="n">
         <v>9.5</v>
       </c>
-      <c r="P17" s="5" t="n">
+      <c r="Q17" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" s="5" t="n">
+      <c r="R17" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="R17" s="5" t="n">
+      <c r="S17" s="5" t="n">
         <v>53.634</v>
       </c>
-      <c r="S17" s="1" t="n">
+      <c r="T17" s="1" t="n">
         <v>108.169</v>
       </c>
-      <c r="T17" s="1" t="n">
+      <c r="U17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN17" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AO17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
-        <v>89</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="6" t="n">
         <v>7.3</v>
       </c>
-      <c r="K18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L18" s="5" t="n">
+      <c r="L18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="5" t="n">
         <v>-15.9</v>
       </c>
-      <c r="M18" s="5"/>
       <c r="N18" s="5"/>
-      <c r="O18" s="5" t="n">
+      <c r="O18" s="5"/>
+      <c r="P18" s="5" t="n">
         <v>6.5</v>
       </c>
-      <c r="P18" s="5" t="n">
+      <c r="Q18" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="Q18" s="5" t="n">
+      <c r="R18" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="R18" s="5" t="n">
+      <c r="S18" s="5" t="n">
         <v>53.634</v>
       </c>
-      <c r="S18" s="1" t="n">
+      <c r="T18" s="1" t="n">
         <v>108.169</v>
       </c>
-      <c r="T18" s="1" t="n">
+      <c r="U18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN18" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AO18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="AP18" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5" t="s">
-        <v>89</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="K19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L19" s="5" t="n">
+      <c r="L19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="5" t="n">
         <v>-15.9</v>
       </c>
-      <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="5" t="n">
+      <c r="O19" s="5"/>
+      <c r="P19" s="5" t="n">
         <v>5.5</v>
       </c>
-      <c r="P19" s="5" t="n">
+      <c r="Q19" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="Q19" s="5" t="n">
+      <c r="R19" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="R19" s="5" t="n">
+      <c r="S19" s="5" t="n">
         <v>53.634</v>
       </c>
-      <c r="S19" s="1" t="n">
+      <c r="T19" s="1" t="n">
         <v>108.169</v>
       </c>
-      <c r="T19" s="1" t="n">
+      <c r="U19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN19" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AO19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
-        <v>89</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="6" t="n">
         <v>9.2</v>
       </c>
-      <c r="K20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="5" t="n">
+      <c r="L20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20" s="5" t="n">
         <v>-15.9</v>
       </c>
-      <c r="M20" s="5"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="5" t="n">
+      <c r="O20" s="5"/>
+      <c r="P20" s="5" t="n">
         <v>3.5</v>
       </c>
-      <c r="P20" s="5" t="n">
+      <c r="Q20" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="Q20" s="5" t="n">
+      <c r="R20" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="R20" s="5" t="n">
+      <c r="S20" s="5" t="n">
         <v>53.634</v>
       </c>
-      <c r="S20" s="1" t="n">
+      <c r="T20" s="1" t="n">
         <v>108.169</v>
       </c>
-      <c r="T20" s="1" t="n">
+      <c r="U20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN20" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AO20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5" t="s">
-        <v>99</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J21" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K21" s="6" t="n">
         <v>14.9</v>
       </c>
-      <c r="K21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L21" s="5" t="n">
+      <c r="L21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" s="5" t="n">
         <v>-8</v>
       </c>
-      <c r="M21" s="5"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="5" t="n">
-        <v>14</v>
-      </c>
+      <c r="O21" s="5"/>
       <c r="P21" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5" t="n">
+      <c r="Q21" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5" t="n">
         <v>33.24</v>
       </c>
-      <c r="S21" s="1" t="n">
+      <c r="T21" s="1" t="n">
         <v>35.654</v>
       </c>
-      <c r="T21" s="1" t="n">
+      <c r="U21" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="AN21" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AO21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="AP21" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
-        <v>103</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J22" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22" s="6" t="n">
         <v>15.4</v>
       </c>
-      <c r="K22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L22" s="5" t="n">
+      <c r="L22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="5" t="n">
         <v>-7.5</v>
       </c>
-      <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="5" t="n">
+      <c r="O22" s="5"/>
+      <c r="P22" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="P22" s="5" t="n">
+      <c r="Q22" s="5" t="n">
         <v>13.5</v>
       </c>
-      <c r="Q22" s="5" t="n">
+      <c r="R22" s="5" t="n">
         <v>16.5</v>
       </c>
-      <c r="R22" s="5" t="n">
+      <c r="S22" s="5" t="n">
         <v>33.24</v>
       </c>
-      <c r="S22" s="1" t="n">
+      <c r="T22" s="1" t="n">
         <v>35.654</v>
       </c>
-      <c r="T22" s="1" t="n">
+      <c r="U22" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="AN22" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AO22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="AP22" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1973,70 +2075,70 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
+      <c r="J23" s="5"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="5"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="J24" s="6"/>
+      <c r="H24" s="5"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="5"/>
+      <c r="L24" s="6"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="J25" s="6"/>
+      <c r="H25" s="5"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="5"/>
+      <c r="L25" s="6"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="J26" s="6"/>
+      <c r="H26" s="5"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="5"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="J27" s="6"/>
+      <c r="H27" s="5"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="5"/>
+      <c r="L27" s="6"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
@@ -2046,9 +2148,9 @@
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
@@ -2058,9 +2160,9 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
@@ -2070,9 +2172,9 @@
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
@@ -2082,6 +2184,7 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/datasheets/Kolodny_et_al_1983.xlsx
+++ b/datasheets/Kolodny_et_al_1983.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="117">
   <si>
     <t xml:space="preserve">Collection number</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">d18Op</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18Operror</t>
   </si>
   <si>
     <t xml:space="preserve">Method</t>
@@ -529,10 +532,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AP35"/>
+  <dimension ref="A1:AQ35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -544,28 +547,28 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="18.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="19.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="21" min="12" style="1" width="11.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="14.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="14.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="26" style="1" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="14.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="26.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="17.8"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="43" style="1" width="11.74"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="12" style="1" width="11.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="14.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="27" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="26.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="17.8"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1026" min="44" style="1" width="11.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -605,7 +608,7 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -695,1374 +698,1400 @@
       <c r="AP1" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="AQ1" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="6" t="n">
         <v>19.4</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="5" t="n">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="5" t="n">
         <v>-2.1</v>
       </c>
-      <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-      <c r="P2" s="5" t="n">
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5" t="n">
         <v>21.5</v>
       </c>
-      <c r="Q2" s="5" t="n">
+      <c r="R2" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="R2" s="5" t="n">
+      <c r="S2" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="T2" s="1" t="n">
         <v>32.825</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="U2" s="1" t="n">
         <v>35.588</v>
       </c>
-      <c r="U2" s="1" t="n">
+      <c r="V2" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AQ2" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="6" t="n">
         <v>19.6</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="5" t="n">
+      <c r="L3" s="6"/>
+      <c r="M3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="5" t="n">
         <v>-2.1</v>
       </c>
-      <c r="N3" s="5"/>
       <c r="O3" s="5"/>
-      <c r="P3" s="5" t="n">
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5" t="n">
         <v>21.5</v>
       </c>
-      <c r="Q3" s="5" t="n">
+      <c r="R3" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="R3" s="5" t="n">
+      <c r="S3" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="S3" s="1" t="n">
+      <c r="T3" s="1" t="n">
         <v>32.825</v>
       </c>
-      <c r="T3" s="1" t="n">
+      <c r="U3" s="1" t="n">
         <v>35.588</v>
       </c>
-      <c r="U3" s="1" t="n">
+      <c r="V3" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AQ3" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="6" t="n">
         <v>18.5</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="5" t="n">
+      <c r="L4" s="6"/>
+      <c r="M4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="5" t="n">
         <v>-2.1</v>
       </c>
-      <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="5" t="n">
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5" t="n">
         <v>21.5</v>
       </c>
-      <c r="Q4" s="5" t="n">
+      <c r="R4" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="R4" s="5" t="n">
+      <c r="S4" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="S4" s="1" t="n">
+      <c r="T4" s="1" t="n">
         <v>32.825</v>
       </c>
-      <c r="T4" s="1" t="n">
+      <c r="U4" s="1" t="n">
         <v>35.588</v>
       </c>
-      <c r="U4" s="1" t="n">
+      <c r="V4" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="AP4" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AQ4" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K5" s="6" t="n">
         <v>22.3</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="5" t="n">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="5" t="n">
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="Q5" s="5" t="n">
+      <c r="R5" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="R5" s="5" t="n">
+      <c r="S5" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="S5" s="1" t="n">
+      <c r="T5" s="1" t="n">
         <v>32.935</v>
       </c>
-      <c r="T5" s="1" t="n">
+      <c r="U5" s="1" t="n">
         <v>35.083</v>
       </c>
-      <c r="U5" s="1" t="n">
+      <c r="V5" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="AP5" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AQ5" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>23.3</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="5" t="n">
+      <c r="L6" s="6"/>
+      <c r="M6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="5" t="n">
         <v>1.9</v>
       </c>
-      <c r="N6" s="5"/>
       <c r="O6" s="5"/>
-      <c r="P6" s="5" t="n">
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5" t="n">
         <v>23.5</v>
       </c>
-      <c r="Q6" s="5" t="n">
+      <c r="R6" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="R6" s="5" t="n">
+      <c r="S6" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="S6" s="5" t="n">
+      <c r="T6" s="5" t="n">
         <v>28.722</v>
       </c>
-      <c r="T6" s="1" t="n">
+      <c r="U6" s="1" t="n">
         <v>34.729</v>
       </c>
-      <c r="U6" s="1" t="n">
+      <c r="V6" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="AP6" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AQ6" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="H7" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K7" s="6" t="n">
         <v>22.7</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="5" t="n">
+      <c r="L7" s="6"/>
+      <c r="M7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="5" t="n">
         <v>1.9</v>
       </c>
-      <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="5" t="n">
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5" t="n">
         <v>23.5</v>
       </c>
-      <c r="Q7" s="5" t="n">
+      <c r="R7" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="R7" s="5" t="n">
+      <c r="S7" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="S7" s="5" t="n">
+      <c r="T7" s="5" t="n">
         <v>28.722</v>
       </c>
-      <c r="T7" s="1" t="n">
+      <c r="U7" s="1" t="n">
         <v>34.729</v>
       </c>
-      <c r="U7" s="1" t="n">
+      <c r="V7" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="AP7" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AQ7" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K8" s="6" t="n">
         <v>22.6</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="5" t="n">
+      <c r="L8" s="6"/>
+      <c r="M8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="5" t="n">
         <v>1.9</v>
       </c>
-      <c r="N8" s="5"/>
       <c r="O8" s="5"/>
-      <c r="P8" s="5" t="n">
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5" t="n">
         <v>23.5</v>
       </c>
-      <c r="Q8" s="5" t="n">
+      <c r="R8" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="R8" s="5" t="n">
+      <c r="S8" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="S8" s="5" t="n">
+      <c r="T8" s="5" t="n">
         <v>28.722</v>
       </c>
-      <c r="T8" s="1" t="n">
+      <c r="U8" s="1" t="n">
         <v>34.729</v>
       </c>
-      <c r="U8" s="1" t="n">
+      <c r="V8" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="AO8" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="AP8" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AQ8" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K9" s="6" t="n">
         <v>22.2</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" s="5" t="n">
+      <c r="L9" s="6"/>
+      <c r="M9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="5" t="n">
         <v>1.9</v>
       </c>
-      <c r="N9" s="5"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="5" t="n">
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5" t="n">
         <v>23.5</v>
       </c>
-      <c r="Q9" s="5" t="n">
+      <c r="R9" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="R9" s="5" t="n">
+      <c r="S9" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="S9" s="5" t="n">
+      <c r="T9" s="5" t="n">
         <v>28.722</v>
       </c>
-      <c r="T9" s="1" t="n">
+      <c r="U9" s="1" t="n">
         <v>34.729</v>
       </c>
-      <c r="U9" s="1" t="n">
+      <c r="V9" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="AO9" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="AP9" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AQ9" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>23.2</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" s="5" t="n">
+      <c r="L10" s="6"/>
+      <c r="M10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="5" t="n">
         <v>1.9</v>
       </c>
-      <c r="N10" s="5"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="5" t="n">
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5" t="n">
         <v>23.5</v>
       </c>
-      <c r="Q10" s="5" t="n">
+      <c r="R10" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="R10" s="5" t="n">
+      <c r="S10" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="S10" s="5" t="n">
+      <c r="T10" s="5" t="n">
         <v>28.722</v>
       </c>
-      <c r="T10" s="1" t="n">
+      <c r="U10" s="1" t="n">
         <v>34.729</v>
       </c>
-      <c r="U10" s="1" t="n">
+      <c r="V10" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="AO10" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="AP10" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AQ10" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K11" s="6" t="n">
         <v>22.3</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11" s="5" t="n">
+      <c r="L11" s="6"/>
+      <c r="M11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="5" t="n">
         <v>1.9</v>
       </c>
-      <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="5" t="n">
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5" t="n">
         <v>23.5</v>
       </c>
-      <c r="Q11" s="5" t="n">
+      <c r="R11" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="R11" s="5" t="n">
+      <c r="S11" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="S11" s="5" t="n">
+      <c r="T11" s="5" t="n">
         <v>28.722</v>
       </c>
-      <c r="T11" s="1" t="n">
+      <c r="U11" s="1" t="n">
         <v>34.729</v>
       </c>
-      <c r="U11" s="1" t="n">
+      <c r="V11" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="AO11" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="AP11" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AQ11" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K12" s="6" t="n">
         <v>25.2</v>
       </c>
-      <c r="L12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M12" s="5" t="n">
+      <c r="L12" s="6"/>
+      <c r="M12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="5" t="n">
         <f aca="false">AVERAGE(1,7.5)</f>
         <v>4.25</v>
       </c>
-      <c r="N12" s="5" t="n">
+      <c r="O12" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="O12" s="5" t="n">
+      <c r="P12" s="5" t="n">
         <v>7.5</v>
       </c>
-      <c r="P12" s="5" t="n">
+      <c r="Q12" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="Q12" s="5" t="n">
+      <c r="R12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="R12" s="5" t="n">
+      <c r="S12" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="S12" s="5" t="n">
+      <c r="T12" s="5" t="n">
         <v>31.187</v>
       </c>
-      <c r="T12" s="1" t="n">
+      <c r="U12" s="1" t="n">
         <v>33.213</v>
       </c>
-      <c r="U12" s="1" t="n">
+      <c r="V12" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="AO12" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="AP12" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AQ12" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K13" s="6" t="n">
         <v>23.6</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M13" s="5" t="n">
+      <c r="L13" s="6"/>
+      <c r="M13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="5" t="n">
         <f aca="false">AVERAGE(1,7.5)</f>
         <v>4.25</v>
       </c>
-      <c r="N13" s="5" t="n">
+      <c r="O13" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="O13" s="5" t="n">
+      <c r="P13" s="5" t="n">
         <v>7.5</v>
       </c>
-      <c r="P13" s="5" t="n">
+      <c r="Q13" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="Q13" s="5" t="n">
+      <c r="R13" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="R13" s="5" t="n">
+      <c r="S13" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="S13" s="5" t="n">
+      <c r="T13" s="5" t="n">
         <v>31.187</v>
       </c>
-      <c r="T13" s="1" t="n">
+      <c r="U13" s="1" t="n">
         <v>33.213</v>
       </c>
-      <c r="U13" s="1" t="n">
+      <c r="V13" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="AO13" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AQ13" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M14" s="5" t="n">
+      <c r="L14" s="6"/>
+      <c r="M14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" s="5" t="n">
         <f aca="false">AVERAGE(1,7.5)</f>
         <v>4.25</v>
       </c>
-      <c r="N14" s="5" t="n">
+      <c r="O14" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="O14" s="5" t="n">
+      <c r="P14" s="5" t="n">
         <v>7.5</v>
       </c>
-      <c r="P14" s="5" t="n">
+      <c r="Q14" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="Q14" s="5" t="n">
+      <c r="R14" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="R14" s="5" t="n">
+      <c r="S14" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="S14" s="5" t="n">
+      <c r="T14" s="5" t="n">
         <v>31.187</v>
       </c>
-      <c r="T14" s="1" t="n">
+      <c r="U14" s="1" t="n">
         <v>33.213</v>
       </c>
-      <c r="U14" s="1" t="n">
+      <c r="V14" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="AP14" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AQ14" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K15" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="L15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M15" s="5" t="n">
+      <c r="L15" s="6"/>
+      <c r="M15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="5" t="n">
         <f aca="false">AVERAGE(1,7.5)</f>
         <v>4.25</v>
       </c>
-      <c r="N15" s="5" t="n">
+      <c r="O15" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="O15" s="5" t="n">
+      <c r="P15" s="5" t="n">
         <v>7.5</v>
       </c>
-      <c r="P15" s="5" t="n">
+      <c r="Q15" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="Q15" s="5" t="n">
+      <c r="R15" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="R15" s="5" t="n">
+      <c r="S15" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="S15" s="5" t="n">
+      <c r="T15" s="5" t="n">
         <v>31.187</v>
       </c>
-      <c r="T15" s="1" t="n">
+      <c r="U15" s="1" t="n">
         <v>33.213</v>
       </c>
-      <c r="U15" s="1" t="n">
+      <c r="V15" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="AO15" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="AP15" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AQ15" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="6" t="n">
         <v>11.1</v>
       </c>
-      <c r="L16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M16" s="5" t="n">
+      <c r="L16" s="6"/>
+      <c r="M16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" s="5" t="n">
         <v>-13.3</v>
       </c>
-      <c r="N16" s="5"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="5" t="n">
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5" t="n">
         <v>4.2</v>
       </c>
-      <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-      <c r="S16" s="5" t="n">
+      <c r="S16" s="5"/>
+      <c r="T16" s="5" t="n">
         <v>69.06</v>
       </c>
-      <c r="T16" s="1" t="n">
+      <c r="U16" s="1" t="n">
         <v>27.875</v>
       </c>
-      <c r="U16" s="1" t="n">
+      <c r="V16" s="1" t="n">
         <v>120</v>
-      </c>
-      <c r="AO16" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="AP16" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AQ16" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="L17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M17" s="5" t="n">
+      <c r="L17" s="6"/>
+      <c r="M17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="5" t="n">
         <v>-15.9</v>
       </c>
-      <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="5" t="n">
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5" t="n">
         <v>9.5</v>
       </c>
-      <c r="Q17" s="5" t="n">
+      <c r="R17" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="R17" s="5" t="n">
+      <c r="S17" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="S17" s="5" t="n">
+      <c r="T17" s="5" t="n">
         <v>53.634</v>
       </c>
-      <c r="T17" s="1" t="n">
+      <c r="U17" s="1" t="n">
         <v>108.169</v>
       </c>
-      <c r="U17" s="1" t="n">
+      <c r="V17" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="AO17" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="AP17" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AQ17" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="6" t="n">
         <v>7.3</v>
       </c>
-      <c r="L18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" s="5" t="n">
+      <c r="L18" s="6"/>
+      <c r="M18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18" s="5" t="n">
         <v>-15.9</v>
       </c>
-      <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="5" t="n">
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5" t="n">
         <v>6.5</v>
       </c>
-      <c r="Q18" s="5" t="n">
+      <c r="R18" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="R18" s="5" t="n">
+      <c r="S18" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="S18" s="5" t="n">
+      <c r="T18" s="5" t="n">
         <v>53.634</v>
       </c>
-      <c r="T18" s="1" t="n">
+      <c r="U18" s="1" t="n">
         <v>108.169</v>
       </c>
-      <c r="U18" s="1" t="n">
+      <c r="V18" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="AO18" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="AP18" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AQ18" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="L19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="5" t="n">
+      <c r="L19" s="6"/>
+      <c r="M19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" s="5" t="n">
         <v>-15.9</v>
       </c>
-      <c r="N19" s="5"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="5" t="n">
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q19" s="5" t="n">
+      <c r="R19" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="R19" s="5" t="n">
+      <c r="S19" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="S19" s="5" t="n">
+      <c r="T19" s="5" t="n">
         <v>53.634</v>
       </c>
-      <c r="T19" s="1" t="n">
+      <c r="U19" s="1" t="n">
         <v>108.169</v>
       </c>
-      <c r="U19" s="1" t="n">
+      <c r="V19" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="AO19" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="AP19" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AQ19" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="D20" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="6" t="n">
         <v>9.2</v>
       </c>
-      <c r="L20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M20" s="5" t="n">
+      <c r="L20" s="6"/>
+      <c r="M20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N20" s="5" t="n">
         <v>-15.9</v>
       </c>
-      <c r="N20" s="5"/>
       <c r="O20" s="5"/>
-      <c r="P20" s="5" t="n">
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q20" s="5" t="n">
+      <c r="R20" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="R20" s="5" t="n">
+      <c r="S20" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="S20" s="5" t="n">
+      <c r="T20" s="5" t="n">
         <v>53.634</v>
       </c>
-      <c r="T20" s="1" t="n">
+      <c r="U20" s="1" t="n">
         <v>108.169</v>
       </c>
-      <c r="U20" s="1" t="n">
+      <c r="V20" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="AO20" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="AP20" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AQ20" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K21" s="6" t="n">
         <v>14.9</v>
       </c>
-      <c r="L21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M21" s="5" t="n">
+      <c r="L21" s="6"/>
+      <c r="M21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" s="5" t="n">
         <v>-8</v>
       </c>
-      <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="5" t="n">
-        <v>14</v>
-      </c>
+      <c r="P21" s="5"/>
       <c r="Q21" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5" t="n">
+      <c r="R21" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5" t="n">
         <v>33.24</v>
       </c>
-      <c r="T21" s="1" t="n">
+      <c r="U21" s="1" t="n">
         <v>35.654</v>
       </c>
-      <c r="U21" s="1" t="n">
+      <c r="V21" s="1" t="n">
         <v>176</v>
-      </c>
-      <c r="AO21" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="AP21" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AQ21" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K22" s="6" t="n">
         <v>15.4</v>
       </c>
-      <c r="L22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M22" s="5" t="n">
+      <c r="L22" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22" s="5" t="n">
         <v>-7.5</v>
       </c>
-      <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="5" t="n">
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="Q22" s="5" t="n">
+      <c r="R22" s="5" t="n">
         <v>13.5</v>
       </c>
-      <c r="R22" s="5" t="n">
+      <c r="S22" s="5" t="n">
         <v>16.5</v>
       </c>
-      <c r="S22" s="5" t="n">
+      <c r="T22" s="5" t="n">
         <v>33.24</v>
       </c>
-      <c r="T22" s="1" t="n">
+      <c r="U22" s="1" t="n">
         <v>35.654</v>
       </c>
-      <c r="U22" s="1" t="n">
+      <c r="V22" s="1" t="n">
         <v>176</v>
-      </c>
-      <c r="AO22" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="AP22" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="AQ22" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2078,13 +2107,14 @@
       <c r="J23" s="5"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="5"/>
+      <c r="M23" s="6"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F24" s="5"/>
@@ -2092,12 +2122,13 @@
       <c r="H24" s="5"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="5"/>
+      <c r="M24" s="6"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F25" s="5"/>
@@ -2105,12 +2136,13 @@
       <c r="H25" s="5"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="5"/>
+      <c r="M25" s="6"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F26" s="5"/>
@@ -2118,12 +2150,13 @@
       <c r="H26" s="5"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="5"/>
+      <c r="M26" s="6"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F27" s="5"/>
@@ -2131,15 +2164,15 @@
       <c r="H27" s="5"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="5"/>
+      <c r="M27" s="6"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R32" s="7"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
@@ -2149,9 +2182,9 @@
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R33" s="7"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
@@ -2161,9 +2194,9 @@
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R34" s="7"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
@@ -2173,9 +2206,9 @@
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R35" s="7"/>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
@@ -2185,6 +2218,7 @@
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
